--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Musculoskeletal chest pain.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Musculoskeletal chest pain.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Dysphagia (difficulty swallowing) for both solids and liquids is characteristic of achalasia, particularly in the context of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Localized chest pain</t>
+          <t>Localized chest pain with movement</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Musculoskeletal chest pain is often characterized by localized pain that can be reproduced with movement or palpation.</t>
+          <t>Chest pain that worsens with movement is typical of musculoskeletal chest pain and not of CREST syndrome with achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin changes (such as sclerodactyly or telangiectasia)</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and help differentiate it from musculoskeletal pain.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, which is not associated with musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pain relief with rest</t>
+          <t>Chest pain reproducible on palpation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Musculoskeletal pain typically improves with rest, which is less common in achalasia-related symptoms.</t>
+          <t>Pain that can be reproduced by pressing on the chest is indicative of musculoskeletal origin.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reflux symptoms can occur due to esophageal motility issues in achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>Sclerodactyly, or thickening and tightening of the skin on the fingers, is specific to CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of recent physical activity or injury</t>
+          <t>Recent physical activity or trauma</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Recent physical activity or trauma is a common trigger for musculoskeletal chest pain, unlike symptoms of achalasia.</t>
+          <t>A history of recent physical activity or trauma is often associated with musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic feature of CREST syndrome and is not typically associated with musculoskeletal chest pain.</t>
+          <t>Telangiectasia, or small dilated blood vessels near the surface of the skin, is a feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No associated gastrointestinal symptoms</t>
+          <t>Pain relief with rest</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Musculoskeletal chest pain often occurs without gastrointestinal symptoms, which are prevalent in achalasia.</t>
+          <t>Musculoskeletal chest pain often improves with rest, unlike pain from CREST syndrome with achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fatigue and malaise</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Generalized fatigue can be more pronounced in systemic conditions like CREST syndrome compared to localized musculoskeletal pain.</t>
+          <t>Calcinosis, or calcium deposits in the skin, is a hallmark of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pain that worsens with movement</t>
+          <t>Absence of systemic symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Musculoskeletal pain typically worsens with movement, contrasting with the nature of pain in achalasia.</t>
+          <t>Musculoskeletal chest pain typically lacks systemic symptoms like those seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark feature of CREST syndrome, indicating skin involvement.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is not associated with musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of recent physical trauma</t>
+          <t>History of trauma or injury to the chest</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recent trauma is a common cause of musculoskeletal chest pain, indicating a mechanical origin.</t>
+          <t>Trauma or injury is a common cause of musculoskeletal chest pain and not related to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -640,17 +640,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and suggests vascular involvement.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and not with musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of repetitive strain or overuse</t>
+          <t>History of costochondritis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Repetitive strain injuries are typical causes of musculoskeletal pain, suggesting a non-systemic issue.</t>
+          <t>Costochondritis is a common cause of musculoskeletal chest pain and not associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -662,61 +662,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility, including Type 2 Achalasia, is frequently seen in CREST syndrome due to connective tissue involvement.</t>
+          <t>Esophageal dysmotility is a characteristic of Type 2 Achalasia, often seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of anxiety or stress</t>
+          <t>History of fibromyalgia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Anxiety can manifest as musculoskeletal pain, particularly in the chest area, indicating a psychosomatic component.</t>
+          <t>Fibromyalgia can cause musculoskeletal chest pain and is not related to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome, indicating systemic involvement.</t>
+          <t>Calcinosis is part of the CREST syndrome and not typically seen in musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of prior musculoskeletal injuries</t>
+          <t>History of physical overexertion</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Previous injuries can lead to chronic pain syndromes, favoring a musculoskeletal diagnosis.</t>
+          <t>Physical overexertion can lead to musculoskeletal chest pain, not linked to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux disease (GERD)</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD is often present in patients with esophageal involvement in CREST syndrome.</t>
+          <t>Telangiectasia is a feature of CREST syndrome, distinguishing it from musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of osteoarthritis or degenerative joint disease</t>
+          <t>History of poor posture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Osteoarthritis can cause localized chest pain due to joint involvement, supporting a musculoskeletal diagnosis.</t>
+          <t>Poor posture can contribute to musculoskeletal chest pain and is unrelated to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases is more common in patients with CREST syndrome, indicating a genetic predisposition.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and can run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Active lifestyle with physical activities</t>
+          <t>History of physical labor or heavy lifting</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>An active lifestyle is more commonly associated with musculoskeletal chest pain due to strain or injury.</t>
+          <t>Musculoskeletal chest pain is often associated with physical strain or injury.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupational exposures are linked to increased risk of autoimmune conditions, including CREST syndrome.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and may indicate a familial predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of recent physical trauma or injury</t>
+          <t>Participation in contact sports</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Recent trauma is a strong indicator of musculoskeletal pain, making it less likely to be related to CREST syndrome.</t>
+          <t>Contact sports can lead to musculoskeletal injuries, increasing the likelihood of musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom associated with CREST syndrome, suggesting a higher likelihood of this diagnosis.</t>
+          <t>Scleroderma is closely related to CREST syndrome and a family history increases the likelihood of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Smoking history</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of autoimmune diseases in the family suggests a lower likelihood of CREST syndrome.</t>
+          <t>Smoking can contribute to musculoskeletal pain and is not typically associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that may exacerbate esophageal symptoms</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Activities that increase stress or exacerbate gastrointestinal symptoms may be more prevalent in patients with achalasia.</t>
+          <t>Type 2 Achalasia is an esophageal motility disorder, and a family history can suggest a genetic predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engagement in high-impact sports</t>
+          <t>Family history of musculoskeletal disorders</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Participation in high-impact sports increases the risk of musculoskeletal injuries, favoring musculoskeletal chest pain.</t>
+          <t>A family history of musculoskeletal disorders can increase the likelihood of musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal issues in family</t>
+          <t>Non-smoking status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A family history of gastrointestinal disorders may indicate a genetic link to conditions like achalasia, supporting CREST syndrome.</t>
+          <t>Smoking is not typically associated with CREST syndrome, whereas it can exacerbate musculoskeletal issues.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of anxiety or stress-related disorders</t>
+          <t>Sedentary lifestyle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Anxiety and stress can manifest as musculoskeletal pain, which is more common than in patients with CREST syndrome.</t>
+          <t>A sedentary lifestyle can contribute to musculoskeletal pain due to deconditioning.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not present in musculoskeletal chest pain.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Localized tenderness on palpation of the chest wall</t>
+          <t>Localized tenderness on palpation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Localized tenderness is a key finding in musculoskeletal chest pain and is not present in CREST syndrome.</t>
+          <t>Tenderness in specific areas of the chest wall is typical of musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasia is commonly seen in CREST syndrome and is absent in musculoskeletal chest pain.</t>
+          <t>Visible small blood vessels on the skin are a common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal respiratory exam</t>
+          <t>Reproducible pain with movement</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal respiratory exam is more consistent with musculoskeletal chest pain than with CREST syndrome, which may show pulmonary involvement.</t>
+          <t>Pain that can be reproduced with certain movements or palpation is indicative of musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with Type 2 Achalasia in CREST syndrome, while it is not typical in musculoskeletal chest pain.</t>
+          <t>Calcium deposits under the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal heart sounds</t>
+          <t>Absence of skin changes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal heart sounds are more indicative of musculoskeletal chest pain, as CREST syndrome may show signs of cardiac involvement.</t>
+          <t>Lack of skin changes such as sclerodactyly or telangiectasia suggests musculoskeletal chest pain over CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is not a feature of musculoskeletal chest pain.</t>
+          <t>Episodes of reduced blood flow to the fingers, causing color changes, are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of skin changes</t>
+          <t>Normal esophageal function</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of skin changes such as sclerodactyly or telangiectasia favors musculoskeletal chest pain over CREST syndrome.</t>
+          <t>Normal swallowing and esophageal function are more consistent with musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reduced breath sounds or crackles on lung examination</t>
+          <t>Esophageal dysmotility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These findings may indicate pulmonary involvement in CREST syndrome, which is not seen in musculoskeletal chest pain.</t>
+          <t>Difficulty swallowing due to esophageal dysfunction is associated with Type 2 Achalasia in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal gastrointestinal exam</t>
+          <t>No Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal gastrointestinal exam is more consistent with musculoskeletal chest pain, as CREST syndrome may show signs of achalasia.</t>
+          <t>Absence of Raynaud's phenomenon supports a diagnosis of musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is often associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by impaired relaxation of the lower esophageal sphincter and esophageal body pressurization, which is specific to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal motility suggests that the chest pain is likely musculoskeletal rather than due to achalasia.</t>
+          <t>Normal esophageal manometry suggests the absence of achalasia, favoring musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study demonstrating dilated esophagus with stasis</t>
+          <t>Barium swallow test showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of achalasia and supports the diagnosis of CREST syndrome.</t>
+          <t>The bird-beak appearance on a barium swallow is indicative of achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative ANA test</t>
+          <t>Normal barium swallow test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative ANA test reduces the likelihood of an autoimmune condition like CREST syndrome.</t>
+          <t>A normal barium swallow test indicates no structural esophageal abnormalities, supporting musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antinuclear antibodies (ANA) positivity</t>
+          <t>Antinuclear antibody (ANA) positivity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ANA positivity is commonly found in autoimmune conditions like CREST syndrome.</t>
+          <t>ANA positivity is common in CREST syndrome, indicating an autoimmune process.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal barium swallow study</t>
+          <t>Negative ANA test</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal study indicates no esophageal obstruction or dilation, favoring musculoskeletal pain.</t>
+          <t>A negative ANA test reduces the likelihood of an autoimmune condition like CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of esophageal dilation on imaging</t>
+          <t>High-resolution esophageal manometry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esophageal dilation is a hallmark of achalasia, which is associated with CREST syndrome.</t>
+          <t>This test can confirm the diagnosis of Type 2 Achalasia by showing specific motility patterns.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Localized tenderness on physical examination</t>
+          <t>Normal chest X-ray</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tenderness in the chest wall is more indicative of musculoskeletal pain than esophageal issues.</t>
+          <t>A normal chest X-ray can help rule out other causes of chest pain, supporting a musculoskeletal origin.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>High-resolution manometry showing incomplete LES relaxation</t>
+          <t>Esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>This finding is specific to achalasia and supports the diagnosis of CREST syndrome.</t>
+          <t>Dilation of the esophagus is a result of chronic achalasia, often seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal chest X-ray</t>
+          <t>Normal ECG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal chest X-ray suggests no structural abnormalities, supporting musculoskeletal chest pain.</t>
+          <t>A normal ECG helps exclude cardiac causes of chest pain, which can be confused with musculoskeletal pain.</t>
         </is>
       </c>
     </row>
